--- a/Daten/Data Dictionary, Wetter.xlsx
+++ b/Daten/Data Dictionary, Wetter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiman\Documents\Gruppe 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewanz\Desktop\Open Campus\Gruppe-4\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3CAED-8816-453A-A237-39BE2FB063DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B650B0-56E3-4843-B9FB-139F8DE7EC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Sturm</t>
   </si>
@@ -180,6 +180,24 @@
   </si>
   <si>
     <t>4-7</t>
+  </si>
+  <si>
+    <t>&gt; 28</t>
+  </si>
+  <si>
+    <t>5 bis 10</t>
+  </si>
+  <si>
+    <t>10 bis 28</t>
+  </si>
+  <si>
+    <t>20 bis 28</t>
+  </si>
+  <si>
+    <t>0 bis 5</t>
+  </si>
+  <si>
+    <t>aktuelle Windgeschwindigkeit</t>
   </si>
 </sst>
 </file>
@@ -595,28 +613,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -626,8 +645,17 @@
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -637,8 +665,17 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -648,8 +685,17 @@
       <c r="C4" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -659,8 +705,17 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,8 +725,17 @@
       <c r="C6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -681,15 +745,24 @@
       <c r="C7" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -700,7 +773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -712,7 +785,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -724,7 +797,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -736,7 +809,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -747,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -758,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -769,14 +842,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
@@ -787,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -798,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -809,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
@@ -820,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>36</v>
       </c>
@@ -831,12 +904,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -847,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
@@ -858,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -869,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>42</v>
       </c>
@@ -880,7 +953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
@@ -891,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
@@ -914,7 +987,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -926,7 +999,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Daten/Data Dictionary, Wetter.xlsx
+++ b/Daten/Data Dictionary, Wetter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewanz\Desktop\Open Campus\Gruppe-4\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B650B0-56E3-4843-B9FB-139F8DE7EC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE99CDF-26FC-448B-AAE3-928FEDC033CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15285" yWindow="315" windowWidth="13515" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -188,9 +188,6 @@
     <t>5 bis 10</t>
   </si>
   <si>
-    <t>10 bis 28</t>
-  </si>
-  <si>
     <t>20 bis 28</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>aktuelle Windgeschwindigkeit</t>
+  </si>
+  <si>
+    <t>10 bis 20</t>
   </si>
 </sst>
 </file>
@@ -615,13 +615,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>9</v>
@@ -669,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G5" s="3">
         <v>3</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="3">
         <v>4</v>
